--- a/groups.xlsx
+++ b/groups.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="28740" windowHeight="12720"/>
+    <workbookView xWindow="96" yWindow="36" windowWidth="18180" windowHeight="7176"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
